--- a/06-03-2023/data/output/xlsx/Causality for Answer = Equation/0.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Answer = Equation/0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="229">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
-  </si>
-  <si>
-    <t>num_of_equals__0,num_of_equals__1</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
@@ -64,235 +58,451 @@
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__13</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__14</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__15</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__17</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__19</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__13</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__14</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__15</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__16</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__17</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
     <t>num_of_decimals__18</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
     <t>num_of_decimals__19</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
     <t>num_of_decimals__20</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
     <t>num_of_decimals__21</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_decimals__22</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_decimals__23</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_decimals__24</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_decimals__25</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_decimals__26</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_decimals__27</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_decimals__28</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_equals__1</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>num_of_decimals__30</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_equals__0</t>
-  </si>
-  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_equals__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_equals__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_equals__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_equals__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_equals__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_equals__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
+    <t>num_of_equals__14</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__14</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
@@ -301,79 +511,163 @@
     <t>num_of_unknowns__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_unknowns__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_unknowns__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_unknowns__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_unknowns__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_unknowns__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_unknowns__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__13</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_decimals__25,num_of_decimals__26,num_of_decimals__27,num_of_decimals__28,num_of_decimals__29,num_of_decimals__30,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__13</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__15</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -529,10 +823,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$15</c:f>
+              <c:f>AddsSubs!$C$4:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -562,45 +856,99 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$15</c:f>
+              <c:f>AddsSubs!$D$4:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.5137895812053116</c:v>
+                  <c:v>0.4862104187946885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5036319612590799</c:v>
+                  <c:v>0.4963680387409201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4336569579288026</c:v>
+                  <c:v>0.5663430420711975</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3686868686868687</c:v>
+                  <c:v>0.6313131313131313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3142857142857143</c:v>
+                  <c:v>0.6857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3164556962025317</c:v>
+                  <c:v>0.6835443037974683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2692307692307692</c:v>
+                  <c:v>0.7307692307692307</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.275</c:v>
+                  <c:v>0.725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1363636363636364</c:v>
+                  <c:v>0.8636363636363636</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.8888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,10 +1069,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$17</c:f>
+              <c:f>MultsDivs!$C$4:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -760,51 +1108,63 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$17</c:f>
+              <c:f>MultsDivs!$D$4:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.3796791443850268</c:v>
+                  <c:v>0.6203208556149733</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3802816901408451</c:v>
+                  <c:v>0.6197183098591549</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3333333333333333</c:v>
+                  <c:v>0.6666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3287671232876712</c:v>
+                  <c:v>0.6712328767123288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3148148148148148</c:v>
+                  <c:v>0.6851851851851852</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2702702702702703</c:v>
+                  <c:v>0.7297297297297297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3181818181818182</c:v>
+                  <c:v>0.6818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2941176470588235</c:v>
+                  <c:v>0.7058823529411765</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4545454545454545</c:v>
+                  <c:v>0.5454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3333333333333333</c:v>
+                  <c:v>0.6666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -925,10 +1285,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$15</c:f>
+              <c:f>Equations!$C$4:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -958,45 +1318,69 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$15</c:f>
+              <c:f>Equations!$D$4:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.5125376128385155</c:v>
+                  <c:v>0.4874623871614844</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5146316851664985</c:v>
+                  <c:v>0.4853683148335015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4860853432282004</c:v>
+                  <c:v>0.5139146567717996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4302325581395349</c:v>
+                  <c:v>0.5697674418604651</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.357843137254902</c:v>
+                  <c:v>0.6421568627450981</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3161764705882353</c:v>
+                  <c:v>0.6838235294117647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3260869565217391</c:v>
+                  <c:v>0.6739130434782609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3518518518518519</c:v>
+                  <c:v>0.6481481481481481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3428571428571429</c:v>
+                  <c:v>0.6571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.05882352941176471</c:v>
+                  <c:v>0.9411764705882353</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1117,10 +1501,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$18</c:f>
+              <c:f>Decimals!$C$4:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1159,54 +1543,156 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$18</c:f>
+              <c:f>Decimals!$D$4:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>0.4196141479099679</c:v>
+                  <c:v>0.5803858520900321</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3678861788617886</c:v>
+                  <c:v>0.6321138211382114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3424657534246575</c:v>
+                  <c:v>0.6575342465753424</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2806324110671937</c:v>
+                  <c:v>0.7193675889328063</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2754491017964072</c:v>
+                  <c:v>0.7245508982035929</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.246031746031746</c:v>
+                  <c:v>0.753968253968254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1882352941176471</c:v>
+                  <c:v>0.8117647058823529</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2153846153846154</c:v>
+                  <c:v>0.7846153846153846</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1951219512195122</c:v>
+                  <c:v>0.8048780487804879</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1612903225806452</c:v>
+                  <c:v>0.8387096774193549</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2173913043478261</c:v>
+                  <c:v>0.7826086956521739</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1</c:v>
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1327,10 +1813,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$14</c:f>
+              <c:f>Unknowns!$C$4:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1357,42 +1843,66 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$14</c:f>
+              <c:f>Unknowns!$D$4:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.5120240480961924</c:v>
+                  <c:v>0.4879759519038076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4904831625183016</c:v>
+                  <c:v>0.5095168374816984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2842105263157895</c:v>
+                  <c:v>0.7157894736842105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1923076923076923</c:v>
+                  <c:v>0.8076923076923077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2608695652173913</c:v>
+                  <c:v>0.7391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3636363636363636</c:v>
+                  <c:v>0.6363636363636364</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4</c:v>
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,10 +2023,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$11</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1534,33 +2044,87 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$11</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.449748743718593</c:v>
+                  <c:v>0.550251256281407</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3121019108280255</c:v>
+                  <c:v>0.6878980891719745</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2558139534883721</c:v>
+                  <c:v>0.7441860465116279</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1764705882352941</c:v>
+                  <c:v>0.8235294117647058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2183,16 +2747,14 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5137895812053116</v>
+        <v>0.4862104187946885</v>
       </c>
       <c r="E3" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.09433528530862872</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2206,14 +2768,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.5036319612590799</v>
+        <v>0.4963680387409201</v>
       </c>
       <c r="E4" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.6006946192579116</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2227,19 +2791,21 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.4336569579288026</v>
+        <v>0.5663430420711975</v>
       </c>
       <c r="E5" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.6140376479180572</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>198</v>
@@ -2248,19 +2814,21 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.3686868686868687</v>
+        <v>0.6313131313131313</v>
       </c>
       <c r="E6" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.4898341837051082</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>105</v>
@@ -2269,19 +2837,21 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.3142857142857143</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="E7" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.4804790719355512</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>79</v>
@@ -2290,19 +2860,21 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.3164556962025317</v>
+        <v>0.6835443037974683</v>
       </c>
       <c r="E8" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.4523157667533307</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>52</v>
@@ -2311,19 +2883,21 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0.2692307692307692</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="E9" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.4618834744204807</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>40</v>
@@ -2332,19 +2906,21 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0.275</v>
+        <v>0.725</v>
       </c>
       <c r="E10" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.4422385386531643</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>22</v>
@@ -2353,19 +2929,21 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0.1363636363636364</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="E11" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.4135383971601482</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>18</v>
@@ -2374,19 +2952,21 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E12" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.4029431556607934</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>10</v>
@@ -2395,19 +2975,21 @@
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.4112689769017711</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>9</v>
@@ -2416,19 +2998,21 @@
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.3793400335359861</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
         <v>8</v>
@@ -2437,19 +3021,21 @@
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.3649564155742495</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
@@ -2458,19 +3044,21 @@
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.3506875474206347</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -2479,19 +3067,21 @@
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.3333560005923392</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -2500,19 +3090,21 @@
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.314095448329186</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2521,19 +3113,21 @@
         <v>17</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.2991731304132325</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2542,19 +3136,21 @@
         <v>18</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.2991731304132325</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2563,19 +3159,21 @@
         <v>19</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.2991731304132325</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
         <v>622</v>
@@ -2584,19 +3182,21 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.4196141479099679</v>
+        <v>0.5803858520900321</v>
       </c>
       <c r="E22" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.6513671778924217</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>492</v>
@@ -2605,19 +3205,21 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.3678861788617886</v>
+        <v>0.6321138211382114</v>
       </c>
       <c r="E23" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.5925185117656945</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>365</v>
@@ -2626,19 +3228,21 @@
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.3424657534246575</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="E24" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.5156526720697111</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
         <v>253</v>
@@ -2647,19 +3251,21 @@
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.2806324110671937</v>
+        <v>0.7193675889328063</v>
       </c>
       <c r="E25" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.5106337475367977</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1">
         <v>167</v>
@@ -2668,19 +3274,21 @@
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.2754491017964072</v>
+        <v>0.7245508982035929</v>
       </c>
       <c r="E26" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.4973795953719703</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1">
         <v>126</v>
@@ -2689,19 +3297,21 @@
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0.246031746031746</v>
+        <v>0.753968253968254</v>
       </c>
       <c r="E27" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.4987789180065437</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1">
         <v>85</v>
@@ -2710,19 +3320,21 @@
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0.1882352941176471</v>
+        <v>0.8117647058823529</v>
       </c>
       <c r="E28" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.4281845035387299</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1">
         <v>65</v>
@@ -2731,19 +3343,21 @@
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0.2153846153846154</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="E29" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.3659220400920667</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1">
         <v>41</v>
@@ -2752,19 +3366,21 @@
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0.1951219512195122</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="E30" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.3488716335313813</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1">
         <v>31</v>
@@ -2773,19 +3389,21 @@
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0.1612903225806452</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E31" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.4057077076607628</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1">
         <v>23</v>
@@ -2794,19 +3412,21 @@
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0.2173913043478261</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="E32" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.3689870429049987</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1">
         <v>15</v>
@@ -2815,19 +3435,21 @@
         <v>31</v>
       </c>
       <c r="D33" s="1">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E33" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.3563005780202756</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B34" s="1">
         <v>10</v>
@@ -2836,19 +3458,21 @@
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="E34" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.3900608029534217</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B35" s="1">
         <v>7</v>
@@ -2857,19 +3481,21 @@
         <v>33</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.4421030725148002</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
@@ -2878,19 +3504,21 @@
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.418731062800465</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B37" s="1">
         <v>6</v>
@@ -2899,19 +3527,21 @@
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.418731062800465</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
@@ -2920,19 +3550,21 @@
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.3962060268877319</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -2941,19 +3573,21 @@
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.3805773325138705</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -2962,19 +3596,21 @@
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.3805773325138705</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -2983,19 +3619,21 @@
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.350523299711622</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -3004,19 +3642,21 @@
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.3400605909887426</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -3025,19 +3665,21 @@
         <v>41</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.3400605909887426</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -3046,19 +3688,21 @@
         <v>42</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.3400605909887426</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -3067,19 +3711,21 @@
         <v>43</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.3400605909887426</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -3088,19 +3734,21 @@
         <v>44</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.2824879508299076</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -3109,19 +3757,21 @@
         <v>45</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.2824879508299076</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -3130,19 +3780,21 @@
         <v>46</v>
       </c>
       <c r="D48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.2824879508299076</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -3151,19 +3803,21 @@
         <v>47</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.2824879508299076</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -3172,19 +3826,21 @@
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.2824879508299076</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -3193,19 +3849,21 @@
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.2824879508299076</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B52" s="1">
         <v>997</v>
@@ -3214,21 +3872,19 @@
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.5125376128385155</v>
+        <v>0.4874623871614844</v>
       </c>
       <c r="E52" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0.5144733067959282</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="B53" s="1">
         <v>991</v>
@@ -3237,21 +3893,19 @@
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.5146316851664985</v>
+        <v>0.4853683148335015</v>
       </c>
       <c r="E53" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.3607843904962417</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B54" s="1">
         <v>539</v>
@@ -3260,19 +3914,21 @@
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0.4860853432282004</v>
+        <v>0.5139146567717996</v>
       </c>
       <c r="E54" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.6868078991869386</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B55" s="1">
         <v>344</v>
@@ -3281,19 +3937,21 @@
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0.4302325581395349</v>
+        <v>0.5697674418604651</v>
       </c>
       <c r="E55" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.6653533128799728</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="B56" s="1">
         <v>204</v>
@@ -3302,19 +3960,21 @@
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0.357843137254902</v>
+        <v>0.6421568627450981</v>
       </c>
       <c r="E56" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.6450637503156895</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="B57" s="1">
         <v>136</v>
@@ -3323,19 +3983,21 @@
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0.3161764705882353</v>
+        <v>0.6838235294117647</v>
       </c>
       <c r="E57" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.5331580817649089</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="B58" s="1">
         <v>92</v>
@@ -3344,19 +4006,21 @@
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.3260869565217391</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="E58" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.3568619954326446</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="B59" s="1">
         <v>54</v>
@@ -3365,19 +4029,21 @@
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.3518518518518519</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="E59" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.2967595168158886</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B60" s="1">
         <v>35</v>
@@ -3386,19 +4052,21 @@
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.3428571428571429</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="E60" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.2577563220313476</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="B61" s="1">
         <v>17</v>
@@ -3407,19 +4075,21 @@
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0.05882352941176471</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="E61" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.4158571208302013</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="B62" s="1">
         <v>9</v>
@@ -3428,19 +4098,21 @@
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.3190921242491964</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -3449,19 +4121,21 @@
         <v>61</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.3033194201156127</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3470,19 +4144,21 @@
         <v>62</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.2597419447858901</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -3491,19 +4167,21 @@
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.2597419447858901</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="B66" s="1">
         <v>187</v>
@@ -3512,19 +4190,21 @@
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.3796791443850268</v>
+        <v>0.6203208556149733</v>
       </c>
       <c r="E66" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.2965705996850531</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="B67" s="1">
         <v>142</v>
@@ -3533,19 +4213,21 @@
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.3802816901408451</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="E67" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.2784085177245725</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="B68" s="1">
         <v>93</v>
@@ -3554,19 +4236,21 @@
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E68" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.2531984771057808</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="B69" s="1">
         <v>73</v>
@@ -3575,19 +4259,21 @@
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0.3287671232876712</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="E69" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.189729150330222</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B70" s="1">
         <v>54</v>
@@ -3596,19 +4282,21 @@
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0.3148148148148148</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="E70" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.1948130350268626</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="B71" s="1">
         <v>37</v>
@@ -3617,19 +4305,21 @@
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0.2702702702702703</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="E71" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.186529511648288</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="B72" s="1">
         <v>22</v>
@@ -3638,19 +4328,21 @@
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.3181818181818182</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="E72" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.02606573432023055</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="B73" s="1">
         <v>17</v>
@@ -3659,19 +4351,21 @@
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0.2941176470588235</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="E73" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G73" s="1">
+        <v>-0.0006510820509397493</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="B74" s="1">
         <v>11</v>
@@ -3680,19 +4374,21 @@
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0.4545454545454545</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E74" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G74" s="1">
+        <v>-0.1037451900272592</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="B75" s="1">
         <v>8</v>
@@ -3701,19 +4397,21 @@
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E75" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.03452306800879225</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="B76" s="1">
         <v>5</v>
@@ -3722,19 +4420,21 @@
         <v>74</v>
       </c>
       <c r="D76" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E76" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G76" s="1">
+        <v>-0.0996686545801376</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
@@ -3743,19 +4443,21 @@
         <v>75</v>
       </c>
       <c r="D77" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E77" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G77" s="1">
+        <v>-0.03102407898790194</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -3764,19 +4466,21 @@
         <v>76</v>
       </c>
       <c r="D78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.302690794688052</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -3785,19 +4489,21 @@
         <v>77</v>
       </c>
       <c r="D79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.2603066376160897</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="B80" s="1">
         <v>998</v>
@@ -3806,19 +4512,19 @@
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="E80" s="1">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="B81" s="1">
         <v>683</v>
@@ -3827,19 +4533,21 @@
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.4904831625183016</v>
+        <v>0.5095168374816984</v>
       </c>
       <c r="E81" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.4028848085841874</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="B82" s="1">
         <v>95</v>
@@ -3848,19 +4556,21 @@
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0.2842105263157895</v>
+        <v>0.7157894736842105</v>
       </c>
       <c r="E82" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.3012219948947778</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="B83" s="1">
         <v>52</v>
@@ -3869,19 +4579,21 @@
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0.1923076923076923</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="E83" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.2956698156221537</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B84" s="1">
         <v>23</v>
@@ -3890,19 +4602,21 @@
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0.2608695652173913</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="E84" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.121932366152952</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -3911,19 +4625,21 @@
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E85" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.1136118387425923</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="B86" s="1">
         <v>11</v>
@@ -3932,19 +4648,21 @@
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0.3636363636363636</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E86" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.07399857341931529</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="B87" s="1">
         <v>7</v>
@@ -3953,19 +4671,21 @@
         <v>85</v>
       </c>
       <c r="D87" s="1">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E87" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.09561779521421694</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="B88" s="1">
         <v>5</v>
@@ -3974,19 +4694,21 @@
         <v>86</v>
       </c>
       <c r="D88" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E88" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.04551521237938101</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -3995,19 +4717,21 @@
         <v>87</v>
       </c>
       <c r="D89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.2711515183524268</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
@@ -4016,19 +4740,21 @@
         <v>88</v>
       </c>
       <c r="D90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.2524703770083873</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -4037,19 +4763,21 @@
         <v>89</v>
       </c>
       <c r="D91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.2597419447858901</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -4058,19 +4786,21 @@
         <v>90</v>
       </c>
       <c r="D92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.2597419447858901</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="B93" s="1">
         <v>398</v>
@@ -4079,19 +4809,21 @@
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.449748743718593</v>
+        <v>0.550251256281407</v>
       </c>
       <c r="E93" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.5824266559001632</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="B94" s="1">
         <v>157</v>
@@ -4100,19 +4832,21 @@
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.3121019108280255</v>
+        <v>0.6878980891719745</v>
       </c>
       <c r="E94" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.4642900689523151</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="B95" s="1">
         <v>75</v>
@@ -4121,19 +4855,21 @@
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="E95" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.4161763408029525</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="B96" s="1">
         <v>43</v>
@@ -4142,19 +4878,21 @@
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.2558139534883721</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="E96" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.3335395406980887</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="B97" s="1">
         <v>25</v>
@@ -4163,19 +4901,21 @@
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0.16</v>
+        <v>0.84</v>
       </c>
       <c r="E97" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.3324085697816712</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c r="B98" s="1">
         <v>17</v>
@@ -4184,19 +4924,21 @@
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0.1764705882352941</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="E98" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.3300078363214881</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="B99" s="1">
         <v>8</v>
@@ -4205,19 +4947,21 @@
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.3829507675949465</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
@@ -4226,19 +4970,21 @@
         <v>98</v>
       </c>
       <c r="D100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.3369174855809953</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
@@ -4247,19 +4993,21 @@
         <v>99</v>
       </c>
       <c r="D101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.3384007862843049</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -4268,19 +5016,21 @@
         <v>100</v>
       </c>
       <c r="D102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.3384007862843049</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -4289,19 +5039,21 @@
         <v>101</v>
       </c>
       <c r="D103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.3384007862843049</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -4310,19 +5062,21 @@
         <v>102</v>
       </c>
       <c r="D104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.3384007862843049</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -4331,19 +5085,21 @@
         <v>103</v>
       </c>
       <c r="D105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.2886724801031864</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -4352,19 +5108,21 @@
         <v>104</v>
       </c>
       <c r="D106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.2597419447858901</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -4373,14 +5131,16 @@
         <v>105</v>
       </c>
       <c r="D107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" s="1">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1" t="s">
-        <v>12</v>
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0.2597419447858901</v>
       </c>
     </row>
   </sheetData>
@@ -4390,7 +5150,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4401,7 +5161,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4424,25 +5184,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4456,13 +5216,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.5137895812053116</v>
+        <v>0.4862104187946885</v>
       </c>
       <c r="E4" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F4" s="1">
-        <v>0.001765533109119199</v>
+        <v>-0.001765533109119144</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4499,13 +5259,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.5036319612590799</v>
+        <v>0.4963680387409201</v>
       </c>
       <c r="E5" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.008392086837112456</v>
+        <v>0.008392086837112511</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4542,13 +5302,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.4336569579288026</v>
+        <v>0.5663430420711975</v>
       </c>
       <c r="E6" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.0783670901673898</v>
+        <v>0.07836709016738985</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4576,7 +5336,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3">
         <v>198</v>
@@ -4585,13 +5345,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3686868686868687</v>
+        <v>0.6313131313131313</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.1433371794093237</v>
+        <v>0.1433371794093237</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4619,7 +5379,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3">
         <v>105</v>
@@ -4628,13 +5388,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.3142857142857143</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="E8" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.1977383338104781</v>
+        <v>0.1977383338104781</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -4662,7 +5422,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3">
         <v>79</v>
@@ -4671,13 +5431,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.3164556962025317</v>
+        <v>0.6835443037974683</v>
       </c>
       <c r="E9" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.1955683518936607</v>
+        <v>0.1955683518936607</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -4705,7 +5465,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3">
         <v>52</v>
@@ -4714,13 +5474,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.2692307692307692</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="E10" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.2427932788654232</v>
+        <v>0.2427932788654231</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -4748,7 +5508,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3">
         <v>40</v>
@@ -4757,13 +5517,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.275</v>
+        <v>0.725</v>
       </c>
       <c r="E11" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F11" s="1">
-        <v>-0.2370240480961924</v>
+        <v>0.2370240480961924</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -4791,7 +5551,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3">
         <v>22</v>
@@ -4800,13 +5560,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1363636363636364</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="E12" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F12" s="1">
-        <v>-0.375660411732556</v>
+        <v>0.375660411732556</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -4834,7 +5594,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3">
         <v>18</v>
@@ -4843,13 +5603,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.1111111111111111</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E13" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F13" s="1">
-        <v>-0.4009129369850813</v>
+        <v>0.4009129369850812</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -4872,6 +5632,393 @@
       </c>
       <c r="L13" s="1">
         <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G17" s="1">
+        <f>1/(POWER(B17,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>G17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K17" s="1">
+        <f>I17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f>MIN(K17,1-D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G18" s="1">
+        <f>1/(POWER(B18,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f>SQRT((D18-POWER(10,-4))*B18*((1-D18+POWER(10,-4))*B18))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f>G18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K18" s="1">
+        <f>I18*J18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f>MIN(K18,1-D18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G19" s="1">
+        <f>1/(POWER(B19,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f>SQRT((D19-POWER(10,-4))*B19*((1-D19+POWER(10,-4))*B19))</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f>G19*H19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K19" s="1">
+        <f>I19*J19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f>MIN(K19,1-D19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G20" s="1">
+        <f>1/(POWER(B20,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <f>SQRT((D20-POWER(10,-4))*B20*((1-D20+POWER(10,-4))*B20))</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K20" s="1">
+        <f>I20*J20</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <f>MIN(K20,1-D20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G21" s="1">
+        <f>1/(POWER(B21,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f>SQRT((D21-POWER(10,-4))*B21*((1-D21+POWER(10,-4))*B21))</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f>G21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K21" s="1">
+        <f>I21*J21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <f>MIN(K21,1-D21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G22" s="1">
+        <f>1/(POWER(B22,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f>SQRT((D22-POWER(10,-4))*B22*((1-D22+POWER(10,-4))*B22))</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <f>G22*H22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K22" s="1">
+        <f>I22*J22</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <f>MIN(K22,1-D22)</f>
         <v>0</v>
       </c>
     </row>
@@ -4883,7 +6030,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4894,7 +6041,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4917,30 +6064,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4949,13 +6096,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.3796791443850268</v>
+        <v>0.6203208556149733</v>
       </c>
       <c r="E4" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.1323449037111656</v>
+        <v>0.1323449037111657</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4983,7 +6130,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -4992,13 +6139,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.3802816901408451</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="E5" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.1317423579553473</v>
+        <v>0.1317423579553473</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5026,7 +6173,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="B6" s="3">
         <v>93</v>
@@ -5035,13 +6182,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.1786907147628591</v>
+        <v>0.178690714762859</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5069,7 +6216,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="B7" s="3">
         <v>73</v>
@@ -5078,13 +6225,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3287671232876712</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.1832569248085212</v>
+        <v>0.1832569248085212</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5112,7 +6259,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B8" s="3">
         <v>54</v>
@@ -5121,13 +6268,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.3148148148148148</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="E8" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.1972092332813776</v>
+        <v>0.1972092332813776</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5155,7 +6302,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="B9" s="3">
         <v>37</v>
@@ -5164,13 +6311,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.2702702702702703</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="E9" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.2417537778259221</v>
+        <v>0.2417537778259221</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5198,7 +6345,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="B10" s="3">
         <v>22</v>
@@ -5207,13 +6354,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.3181818181818182</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="E10" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.1938422299143742</v>
+        <v>0.1938422299143742</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5241,7 +6388,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="B11" s="3">
         <v>17</v>
@@ -5250,13 +6397,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.2941176470588235</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="E11" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F11" s="1">
-        <v>-0.2179064010373689</v>
+        <v>0.2179064010373689</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5284,7 +6431,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="B12" s="3">
         <v>11</v>
@@ -5293,13 +6440,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.4545454545454545</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E12" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F12" s="1">
-        <v>-0.05747859355073787</v>
+        <v>0.05747859355073781</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -5327,7 +6474,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="B13" s="3">
         <v>8</v>
@@ -5336,13 +6483,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E13" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F13" s="1">
-        <v>-0.2620240480961924</v>
+        <v>0.2620240480961924</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -5370,7 +6517,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
@@ -5379,13 +6526,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E14" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F14" s="1">
-        <v>-0.1120240480961924</v>
+        <v>0.1120240480961924</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -5413,7 +6560,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -5422,13 +6569,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E15" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F15" s="1">
-        <v>-0.1786907147628591</v>
+        <v>0.178690714762859</v>
       </c>
       <c r="G15" s="1">
         <f>1/(POWER(B15,1.5))</f>
@@ -5451,6 +6598,92 @@
       </c>
       <c r="L15" s="1">
         <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G17" s="1">
+        <f>1/(POWER(B17,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>G17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K17" s="1">
+        <f>I17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f>MIN(K17,1-D17)</f>
         <v>0</v>
       </c>
     </row>
@@ -5462,7 +6695,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5473,7 +6706,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5496,30 +6729,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -5528,13 +6761,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.5125376128385155</v>
+        <v>0.4874623871614844</v>
       </c>
       <c r="E4" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0005135647423231138</v>
+        <v>-0.0005135647423231693</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5562,7 +6795,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -5571,13 +6804,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.5146316851664985</v>
+        <v>0.4853683148335015</v>
       </c>
       <c r="E5" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F5" s="1">
-        <v>0.00260763707030609</v>
+        <v>-0.00260763707030609</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5605,7 +6838,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B6" s="3">
         <v>539</v>
@@ -5614,13 +6847,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.4860853432282004</v>
+        <v>0.5139146567717996</v>
       </c>
       <c r="E6" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.02593870486799205</v>
+        <v>0.02593870486799199</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5648,7 +6881,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B7" s="3">
         <v>344</v>
@@ -5657,13 +6890,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.4302325581395349</v>
+        <v>0.5697674418604651</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.08179148995665753</v>
+        <v>0.08179148995665753</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5691,7 +6924,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="B8" s="3">
         <v>204</v>
@@ -5700,13 +6933,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.357843137254902</v>
+        <v>0.6421568627450981</v>
       </c>
       <c r="E8" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.1541809108412904</v>
+        <v>0.1541809108412905</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5734,7 +6967,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="B9" s="3">
         <v>136</v>
@@ -5743,13 +6976,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.3161764705882353</v>
+        <v>0.6838235294117647</v>
       </c>
       <c r="E9" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.1958475775079571</v>
+        <v>0.1958475775079571</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5777,7 +7010,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="B10" s="3">
         <v>92</v>
@@ -5786,13 +7019,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.3260869565217391</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="E10" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.1859370915744533</v>
+        <v>0.1859370915744533</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5820,7 +7053,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="B11" s="3">
         <v>54</v>
@@ -5829,13 +7062,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.3518518518518519</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="E11" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F11" s="1">
-        <v>-0.1601721962443405</v>
+        <v>0.1601721962443405</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5863,7 +7096,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B12" s="3">
         <v>35</v>
@@ -5872,13 +7105,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.3428571428571429</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="E12" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F12" s="1">
-        <v>-0.1691669052390495</v>
+        <v>0.1691669052390495</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -5906,7 +7139,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="B13" s="3">
         <v>17</v>
@@ -5915,13 +7148,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.05882352941176471</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="E13" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F13" s="1">
-        <v>-0.4532005186844277</v>
+        <v>0.4532005186844277</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -5944,6 +7177,178 @@
       </c>
       <c r="L13" s="1">
         <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G17" s="1">
+        <f>1/(POWER(B17,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>G17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K17" s="1">
+        <f>I17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f>MIN(K17,1-D17)</f>
         <v>0</v>
       </c>
     </row>
@@ -5954,6 +7359,1359 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3">
+        <v>622</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.5803858520900321</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.09240990018622453</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3">
+        <v>492</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.6321138211382114</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.1441378692344037</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3">
+        <v>365</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.6575342465753424</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.1695582946715348</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3">
+        <v>253</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.7193675889328063</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.2313916370289987</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.7245508982035929</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.2365749462997853</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.753968253968254</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.2659923020644464</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="3">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.8117647058823529</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.3237887539785453</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="3">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.7846153846153846</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.296639432711577</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="3">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.3169020968766803</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="3">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.8387096774193549</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.3507337255155473</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="3">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.2946327437483663</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="3">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.3120240480961924</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.4120240480961924</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G17" s="1">
+        <f>1/(POWER(B17,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>G17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K17" s="1">
+        <f>I17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f>MIN(K17,1-D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G18" s="1">
+        <f>1/(POWER(B18,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f>SQRT((D18-POWER(10,-4))*B18*((1-D18+POWER(10,-4))*B18))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f>G18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K18" s="1">
+        <f>I18*J18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f>MIN(K18,1-D18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G19" s="1">
+        <f>1/(POWER(B19,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f>SQRT((D19-POWER(10,-4))*B19*((1-D19+POWER(10,-4))*B19))</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f>G19*H19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K19" s="1">
+        <f>I19*J19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f>MIN(K19,1-D19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G20" s="1">
+        <f>1/(POWER(B20,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <f>SQRT((D20-POWER(10,-4))*B20*((1-D20+POWER(10,-4))*B20))</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K20" s="1">
+        <f>I20*J20</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <f>MIN(K20,1-D20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G21" s="1">
+        <f>1/(POWER(B21,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f>SQRT((D21-POWER(10,-4))*B21*((1-D21+POWER(10,-4))*B21))</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f>G21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K21" s="1">
+        <f>I21*J21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <f>MIN(K21,1-D21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G22" s="1">
+        <f>1/(POWER(B22,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f>SQRT((D22-POWER(10,-4))*B22*((1-D22+POWER(10,-4))*B22))</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <f>G22*H22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K22" s="1">
+        <f>I22*J22</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <f>MIN(K22,1-D22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G23" s="1">
+        <f>1/(POWER(B23,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f>SQRT((D23-POWER(10,-4))*B23*((1-D23+POWER(10,-4))*B23))</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <f>G23*H23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K23" s="1">
+        <f>I23*J23</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <f>MIN(K23,1-D23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G24" s="1">
+        <f>1/(POWER(B24,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f>SQRT((D24-POWER(10,-4))*B24*((1-D24+POWER(10,-4))*B24))</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <f>G24*H24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K24" s="1">
+        <f>I24*J24</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <f>MIN(K24,1-D24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G25" s="1">
+        <f>1/(POWER(B25,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <f>SQRT((D25-POWER(10,-4))*B25*((1-D25+POWER(10,-4))*B25))</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <f>G25*H25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K25" s="1">
+        <f>I25*J25</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <f>MIN(K25,1-D25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G26" s="1">
+        <f>1/(POWER(B26,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f>SQRT((D26-POWER(10,-4))*B26*((1-D26+POWER(10,-4))*B26))</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <f>G26*H26</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K26" s="1">
+        <f>I26*J26</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <f>MIN(K26,1-D26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>24</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G27" s="1">
+        <f>1/(POWER(B27,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <f>SQRT((D27-POWER(10,-4))*B27*((1-D27+POWER(10,-4))*B27))</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <f>G27*H27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K27" s="1">
+        <f>I27*J27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <f>MIN(K27,1-D27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G28" s="1">
+        <f>1/(POWER(B28,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <f>SQRT((D28-POWER(10,-4))*B28*((1-D28+POWER(10,-4))*B28))</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <f>G28*H28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K28" s="1">
+        <f>I28*J28</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <f>MIN(K28,1-D28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>26</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G29" s="1">
+        <f>1/(POWER(B29,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <f>SQRT((D29-POWER(10,-4))*B29*((1-D29+POWER(10,-4))*B29))</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <f>G29*H29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K29" s="1">
+        <f>I29*J29</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <f>MIN(K29,1-D29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G30" s="1">
+        <f>1/(POWER(B30,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <f>SQRT((D30-POWER(10,-4))*B30*((1-D30+POWER(10,-4))*B30))</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <f>G30*H30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K30" s="1">
+        <f>I30*J30</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <f>MIN(K30,1-D30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>28</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G31" s="1">
+        <f>1/(POWER(B31,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <f>SQRT((D31-POWER(10,-4))*B31*((1-D31+POWER(10,-4))*B31))</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <f>G31*H31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K31" s="1">
+        <f>I31*J31</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <f>MIN(K31,1-D31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G32" s="1">
+        <f>1/(POWER(B32,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <f>SQRT((D32-POWER(10,-4))*B32*((1-D32+POWER(10,-4))*B32))</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <f>G32*H32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K32" s="1">
+        <f>I32*J32</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <f>MIN(K32,1-D32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G33" s="1">
+        <f>1/(POWER(B33,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <f>SQRT((D33-POWER(10,-4))*B33*((1-D33+POWER(10,-4))*B33))</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <f>G33*H33</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K33" s="1">
+        <f>I33*J33</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <f>MIN(K33,1-D33)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L16"/>
   <sheetViews>
@@ -5966,7 +8724,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5989,45 +8747,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="B4" s="3">
-        <v>622</v>
+        <v>998</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.4196141479099679</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="E4" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.09240990018622453</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6055,22 +8813,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="B5" s="3">
-        <v>492</v>
+        <v>683</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.3678861788617886</v>
+        <v>0.5095168374816984</v>
       </c>
       <c r="E5" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.1441378692344038</v>
+        <v>0.0215408855778908</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6098,22 +8856,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="B6" s="3">
-        <v>365</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.3424657534246575</v>
+        <v>0.7157894736842105</v>
       </c>
       <c r="E6" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.1695582946715349</v>
+        <v>0.2278135217804029</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6141,22 +8899,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="B7" s="3">
-        <v>253</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2806324110671937</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.2313916370289987</v>
+        <v>0.3197163557885001</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6184,22 +8942,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="B8" s="3">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.2754491017964072</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="E8" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.2365749462997852</v>
+        <v>0.251154482878801</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -6227,22 +8985,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B9" s="3">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.246031746031746</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E9" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.2659923020644464</v>
+        <v>0.2263097623819067</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -6270,22 +9028,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="B10" s="3">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.1882352941176471</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E10" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.3237887539785453</v>
+        <v>0.1483876844598288</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -6313,22 +9071,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="B11" s="3">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.2153846153846154</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E11" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F11" s="1">
-        <v>-0.296639432711577</v>
+        <v>0.2263097623819067</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -6356,22 +9114,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="B12" s="3">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1951219512195122</v>
+        <v>0.6</v>
       </c>
       <c r="E12" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F12" s="1">
-        <v>-0.3169020968766802</v>
+        <v>0.1120240480961924</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -6399,22 +9157,22 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="B13" s="3">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.1612903225806452</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F13" s="1">
         <v>0.5120240480961924</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-0.3507337255155473</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -6442,22 +9200,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="B14" s="3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.2173913043478261</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F14" s="1">
         <v>0.5120240480961924</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-0.2946327437483663</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -6485,22 +9243,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B15" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F15" s="1">
         <v>0.5120240480961924</v>
-      </c>
-      <c r="F15" s="1">
-        <v>-0.3120240480961924</v>
       </c>
       <c r="G15" s="1">
         <f>1/(POWER(B15,1.5))</f>
@@ -6528,22 +9286,22 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="B16" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
         <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F16" s="1">
         <v>0.5120240480961924</v>
-      </c>
-      <c r="F16" s="1">
-        <v>-0.4120240480961924</v>
       </c>
       <c r="G16" s="1">
         <f>1/(POWER(B16,1.5))</f>
@@ -6575,9 +9333,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6588,7 +9346,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6611,45 +9369,45 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="B4" s="3">
-        <v>998</v>
+        <v>398</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.550251256281407</v>
       </c>
       <c r="E4" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>0.06227530437759943</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6677,22 +9435,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="B5" s="3">
-        <v>683</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.4904831625183016</v>
+        <v>0.6878980891719745</v>
       </c>
       <c r="E5" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.0215408855778908</v>
+        <v>0.1999221372681669</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6720,22 +9478,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="B6" s="3">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.2842105263157895</v>
+        <v>0.68</v>
       </c>
       <c r="E6" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.2278135217804029</v>
+        <v>0.1920240480961924</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6763,22 +9521,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="B7" s="3">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1923076923076923</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.3197163557885001</v>
+        <v>0.2562100946078203</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6806,22 +9564,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="B8" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.2608695652173913</v>
+        <v>0.84</v>
       </c>
       <c r="E8" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.2511544828788011</v>
+        <v>0.3520240480961924</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -6849,22 +9607,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="B9" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.2857142857142857</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="E9" s="3">
-        <v>0.5120240480961924</v>
+        <v>0.4879759519038076</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.2263097623819067</v>
+        <v>0.3355534598608982</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -6892,22 +9650,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="B10" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.3636363636363636</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.5120240480961924</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-0.1483876844598288</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -6935,22 +9693,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="B11" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.5120240480961924</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-0.2263097623819067</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -6978,22 +9736,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="B12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F12" s="1">
         <v>0.5120240480961924</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-0.1120240480961924</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -7019,324 +9777,261 @@
         <v>0</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.5120240480961924</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="3">
-        <v>398</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.449748743718593</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F16" s="1">
         <v>0.5120240480961924</v>
       </c>
-      <c r="F4" s="1">
-        <v>-0.06227530437759943</v>
-      </c>
-      <c r="G4" s="1">
-        <f>1/(POWER(B4,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f>G4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K4" s="1">
-        <f>I4*J4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <f>MIN(K4,1-D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="3">
-        <v>157</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.3121019108280255</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F17" s="1">
         <v>0.5120240480961924</v>
       </c>
-      <c r="F5" s="1">
-        <v>-0.1999221372681669</v>
-      </c>
-      <c r="G5" s="1">
-        <f>1/(POWER(B5,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>MIN(K5,1-D5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="3">
-        <v>75</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.32</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="G17" s="1">
+        <f>1/(POWER(B17,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>G17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K17" s="1">
+        <f>I17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f>MIN(K17,1-D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.4879759519038076</v>
+      </c>
+      <c r="F18" s="1">
         <v>0.5120240480961924</v>
       </c>
-      <c r="F6" s="1">
-        <v>-0.1920240480961924</v>
-      </c>
-      <c r="G6" s="1">
-        <f>1/(POWER(B6,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f>G6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K6" s="1">
-        <f>I6*J6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <f>MIN(K6,1-D6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="3">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-0.2562100946078203</v>
-      </c>
-      <c r="G7" s="1">
-        <f>1/(POWER(B7,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <f>G7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K7" s="1">
-        <f>I7*J7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="3">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-0.3520240480961924</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="3">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.1764705882352941</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.5120240480961924</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-0.3355534598608982</v>
-      </c>
-      <c r="G9" s="1">
-        <f>1/(POWER(B9,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <f>G9*H9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K9" s="1">
-        <f>I9*J9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <f>MIN(K9,1-D9)</f>
+      <c r="G18" s="1">
+        <f>1/(POWER(B18,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f>SQRT((D18-POWER(10,-4))*B18*((1-D18+POWER(10,-4))*B18))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f>G18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K18" s="1">
+        <f>I18*J18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f>MIN(K18,1-D18)</f>
         <v>0</v>
       </c>
     </row>
